--- a/uutd5-xunqs.xlsx
+++ b/uutd5-xunqs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sychen/PycharmProjects/quotation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack SY Chen\quotation-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C7CC6D-C4EE-0242-97D1-22FFEB177A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showSheetTabs="0" xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showSheetTabs="0" xWindow="0" yWindow="495" windowWidth="16380" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="报价单" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">报价单!$B$1:$G$42</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>聖大國際有限公司</t>
   </si>
@@ -144,53 +143,6 @@
     <t>報價有效期至</t>
   </si>
   <si>
-    <t>姓名：無</t>
-  </si>
-  <si>
-    <t>公司名稱：芯成股份有限公司</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="2"/>
-      </rPr>
-      <t>統一編號：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>24268597</t>
-    </r>
-  </si>
-  <si>
-    <t>公司地址：無</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="2"/>
-      </rPr>
-      <t>電話：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>03-5520981#1688</t>
-    </r>
-  </si>
-  <si>
     <t>特別注意事項：</t>
   </si>
   <si>
@@ -209,18 +161,6 @@
     <t>付款方式</t>
   </si>
   <si>
-    <t>陳聖尹</t>
-  </si>
-  <si>
-    <t>2021/07/04</t>
-  </si>
-  <si>
-    <t>快遞</t>
-  </si>
-  <si>
-    <t>現金</t>
-  </si>
-  <si>
     <t>數量</t>
   </si>
   <si>
@@ -234,45 +174,6 @@
   </si>
   <si>
     <t>金額</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">USB 3.0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="2"/>
-      </rPr>
-      <t>擴充卡</t>
-    </r>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">RS232 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="2"/>
-      </rPr>
-      <t>擴充卡含線</t>
-    </r>
   </si>
   <si>
     <t>小計</t>
@@ -343,19 +244,28 @@
   <si>
     <t>祝事業興旺！</t>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);;_(@_)"/>
-    <numFmt numFmtId="167" formatCode="@&quot;  &quot;"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);;_(@_)"/>
+    <numFmt numFmtId="179" formatCode="@&quot;  &quot;"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -423,6 +333,12 @@
       <name val="DejaVu Sans Mono"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -634,32 +550,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -668,7 +560,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -682,7 +574,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -713,46 +605,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -761,18 +641,63 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -794,13 +719,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>311760</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>114810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>599760</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>75180</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -904,13 +829,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>455760</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>75180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>456120</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>137100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1284,396 +1209,367 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G42"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="8" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="45">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="11"/>
+    <row r="2" spans="2:7" ht="14.25">
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="13">
-        <v>44381</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="14" t="s">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="2:7" ht="14.25">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="14" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="2:7" ht="14.25">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="14" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="2:7" ht="14.25">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="19">
-        <v>44412</v>
-      </c>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="6"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="14" t="s">
+      <c r="C16" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="14" t="s">
+    <row r="17" spans="2:7">
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="14" t="s">
+      <c r="D19" s="48" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="17" t="s">
+      <c r="E19" s="48"/>
+      <c r="F19" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="G19" s="49"/>
+    </row>
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="21"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="21"/>
-    </row>
-    <row r="19" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B19" s="23" t="s">
+      <c r="C23" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="D23" s="51"/>
+      <c r="E23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="F23" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7" t="s">
+      <c r="G23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B20" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-    </row>
-    <row r="23" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B23" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B24" s="29">
-        <v>100</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="30">
-        <v>520</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="32">
+    </row>
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="21">
+        <v>1</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="37">
+        <v>1</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="39">
         <f t="shared" ref="G24:G33" si="0">B24*E24</f>
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B25" s="33">
-        <v>20</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="34">
-        <v>1500</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="36">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="22"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36">
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="22"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36">
+    <row r="27" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B27" s="22"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36">
+    <row r="28" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B28" s="22"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B30" s="33"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36">
+    <row r="29" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B29" s="22"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B31" s="33"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36">
+    <row r="30" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="22"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B32" s="33"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36">
+    <row r="31" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="22"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B33" s="37"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40">
+    <row r="32" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="22"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="F34" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="43">
+    <row r="33" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="25"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="F34" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="31">
         <f>SUM(G24:G33)</f>
-        <v>82000</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B35" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="41"/>
-      <c r="F35" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="F35" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="33">
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B36" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="44" t="s">
+    <row r="36" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="F36" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="46">
+      <c r="D36" s="29"/>
+      <c r="F36" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="34">
         <f>G35*SUMIF(F24:F33,"T",G24:G33)</f>
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B37" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="41"/>
-      <c r="F37" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="46">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="F37" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="F38" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="48">
+    <row r="38" spans="2:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F38" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="36">
         <f>G34+G36+G37</f>
-        <v>86100</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="14" t="s">
-        <v>41</v>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="14.25">
+      <c r="B40" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="B42" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.70833333333333304" bottom="0.70833333333333304" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>